--- a/output/ScriptResults/Database_Thresholds_20240108.xlsx
+++ b/output/ScriptResults/Database_Thresholds_20240108.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>ThresholdID</t>
   </si>
@@ -876,6 +876,12 @@
   </si>
   <si>
     <t xml:space="preserve">Calculated Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: db49f0f869e1f5a8558dc746458075a467cf2c41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 17b6a0f858dccbb28fc8ab3fe179e7fa731e5996</t>
   </si>
 </sst>
 </file>
@@ -897,8 +903,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <b/>
       <i/>
     </font>
@@ -906,24 +910,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <b/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <i/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1473,7 +1471,7 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X4" s="5" t="n">
         <v>45299</v>
@@ -1536,7 +1534,7 @@
       </c>
       <c r="V5"/>
       <c r="W5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X5" s="5" t="n">
         <v>45299</v>
@@ -1597,7 +1595,7 @@
       </c>
       <c r="V6"/>
       <c r="W6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X6" s="5" t="n">
         <v>45299</v>
@@ -1656,7 +1654,7 @@
       </c>
       <c r="V7"/>
       <c r="W7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X7" s="5" t="n">
         <v>45299</v>
@@ -1707,7 +1705,7 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X8" s="5" t="n">
         <v>45299</v>
@@ -1768,7 +1766,7 @@
       </c>
       <c r="V9"/>
       <c r="W9" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X9" s="5" t="n">
         <v>45299</v>
@@ -1827,7 +1825,7 @@
       </c>
       <c r="V10"/>
       <c r="W10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X10" s="5" t="n">
         <v>45299</v>
@@ -1886,7 +1884,7 @@
       </c>
       <c r="V11"/>
       <c r="W11" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X11" s="5" t="n">
         <v>45299</v>
@@ -1947,7 +1945,7 @@
       </c>
       <c r="V12"/>
       <c r="W12" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X12" s="5" t="n">
         <v>45299</v>
@@ -2004,7 +2002,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X13" s="5" t="n">
         <v>45299</v>
@@ -2063,7 +2061,7 @@
       </c>
       <c r="V14"/>
       <c r="W14" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X14" s="5" t="n">
         <v>45299</v>
@@ -2124,7 +2122,7 @@
       </c>
       <c r="V15"/>
       <c r="W15" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X15" s="5" t="n">
         <v>45299</v>
@@ -2185,7 +2183,7 @@
       </c>
       <c r="V16"/>
       <c r="W16" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X16" s="5" t="n">
         <v>45299</v>
@@ -2246,7 +2244,7 @@
       </c>
       <c r="V17"/>
       <c r="W17" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X17" s="5" t="n">
         <v>45299</v>
@@ -2307,7 +2305,7 @@
       </c>
       <c r="V18"/>
       <c r="W18" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X18" s="5" t="n">
         <v>45299</v>
@@ -2370,7 +2368,7 @@
       </c>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X19" s="5" t="n">
         <v>45299</v>
@@ -2429,7 +2427,7 @@
       </c>
       <c r="V20"/>
       <c r="W20" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X20" s="5" t="n">
         <v>45299</v>
@@ -2480,7 +2478,7 @@
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X21" s="5" t="n">
         <v>45299</v>
@@ -2537,7 +2535,7 @@
       </c>
       <c r="V22"/>
       <c r="W22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X22" s="5" t="n">
         <v>45299</v>
@@ -2600,7 +2598,7 @@
       </c>
       <c r="V23"/>
       <c r="W23" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X23" s="5" t="n">
         <v>45299</v>
@@ -2665,7 +2663,7 @@
       </c>
       <c r="V24"/>
       <c r="W24" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X24" s="5" t="n">
         <v>45299</v>
@@ -2730,7 +2728,7 @@
       </c>
       <c r="V25"/>
       <c r="W25" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X25" s="5" t="n">
         <v>45299</v>
@@ -2795,7 +2793,7 @@
       </c>
       <c r="V26"/>
       <c r="W26" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X26" s="5" t="n">
         <v>45299</v>
@@ -2860,7 +2858,7 @@
       </c>
       <c r="V27"/>
       <c r="W27" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X27" s="5" t="n">
         <v>45299</v>
@@ -2923,7 +2921,7 @@
       </c>
       <c r="V28"/>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X28" s="5" t="n">
         <v>45299</v>
@@ -2984,11 +2982,11 @@
         <v>45299</v>
       </c>
       <c r="U29" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V29"/>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X29" s="5" t="n">
         <v>45299</v>
@@ -3053,7 +3051,7 @@
       </c>
       <c r="V30"/>
       <c r="W30" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X30" s="5" t="n">
         <v>45299</v>
@@ -3118,7 +3116,7 @@
       </c>
       <c r="V31"/>
       <c r="W31" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X31" s="5" t="n">
         <v>45299</v>
@@ -3183,7 +3181,7 @@
       </c>
       <c r="V32"/>
       <c r="W32" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X32" s="5" t="n">
         <v>45299</v>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="V33"/>
       <c r="W33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X33" s="5" t="n">
         <v>45299</v>
@@ -3311,7 +3309,7 @@
       </c>
       <c r="V34"/>
       <c r="W34" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X34" s="5" t="n">
         <v>45299</v>
@@ -3376,7 +3374,7 @@
       </c>
       <c r="V35"/>
       <c r="W35" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X35" s="5" t="n">
         <v>45299</v>
@@ -3441,7 +3439,7 @@
       </c>
       <c r="V36"/>
       <c r="W36" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X36" s="5" t="n">
         <v>45299</v>
@@ -3506,7 +3504,7 @@
       </c>
       <c r="V37"/>
       <c r="W37" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X37" s="5" t="n">
         <v>45299</v>
@@ -3567,7 +3565,7 @@
       </c>
       <c r="V38"/>
       <c r="W38" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X38" s="5" t="n">
         <v>45299</v>
@@ -3628,7 +3626,7 @@
       </c>
       <c r="V39"/>
       <c r="W39" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X39" s="5" t="n">
         <v>45299</v>
@@ -3689,7 +3687,7 @@
       </c>
       <c r="V40"/>
       <c r="W40" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X40" s="5" t="n">
         <v>45299</v>
@@ -3748,11 +3746,11 @@
         <v>45299</v>
       </c>
       <c r="U41" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V41"/>
       <c r="W41" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X41" s="5" t="n">
         <v>45299</v>
@@ -3811,7 +3809,7 @@
       </c>
       <c r="V42"/>
       <c r="W42" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X42" s="5" t="n">
         <v>45299</v>
@@ -3870,7 +3868,7 @@
       </c>
       <c r="V43"/>
       <c r="W43" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X43" s="5" t="n">
         <v>45299</v>
@@ -3933,7 +3931,7 @@
       </c>
       <c r="V44"/>
       <c r="W44" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X44" s="5" t="n">
         <v>45299</v>
@@ -3996,7 +3994,7 @@
       </c>
       <c r="V45"/>
       <c r="W45" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X45" s="5" t="n">
         <v>45299</v>
@@ -4047,7 +4045,7 @@
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X46" s="5" t="n">
         <v>45299</v>
@@ -4108,7 +4106,7 @@
       </c>
       <c r="V47"/>
       <c r="W47" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X47" s="5" t="n">
         <v>45299</v>
@@ -4171,7 +4169,7 @@
       </c>
       <c r="V48"/>
       <c r="W48" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X48" s="5" t="n">
         <v>45299</v>
@@ -4230,7 +4228,7 @@
       </c>
       <c r="V49"/>
       <c r="W49" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X49" s="5" t="n">
         <v>45299</v>
@@ -4287,7 +4285,7 @@
         <v>283</v>
       </c>
       <c r="W50" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X50" s="5" t="n">
         <v>45299</v>
@@ -4350,7 +4348,7 @@
       </c>
       <c r="V51"/>
       <c r="W51" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X51" s="5" t="n">
         <v>45299</v>
@@ -4415,7 +4413,7 @@
         <v>283</v>
       </c>
       <c r="W52" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X52" s="5" t="n">
         <v>45299</v>
@@ -4474,7 +4472,7 @@
       </c>
       <c r="V53"/>
       <c r="W53" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X53" s="5" t="n">
         <v>45299</v>
@@ -4531,7 +4529,7 @@
       </c>
       <c r="V54"/>
       <c r="W54" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X54" s="5" t="n">
         <v>45299</v>
@@ -4592,7 +4590,7 @@
       </c>
       <c r="V55"/>
       <c r="W55" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X55" s="5" t="n">
         <v>45299</v>
@@ -4643,7 +4641,7 @@
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X56" s="5" t="n">
         <v>45299</v>
@@ -4706,7 +4704,7 @@
       </c>
       <c r="V57"/>
       <c r="W57" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X57" s="5" t="n">
         <v>45299</v>
@@ -4757,7 +4755,7 @@
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X58" s="5" t="n">
         <v>45299</v>
@@ -4814,7 +4812,7 @@
       </c>
       <c r="V59"/>
       <c r="W59" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X59" s="5" t="n">
         <v>45299</v>
@@ -4865,7 +4863,7 @@
       <c r="U60"/>
       <c r="V60"/>
       <c r="W60" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X60" s="5" t="n">
         <v>45299</v>
@@ -4916,7 +4914,7 @@
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X61" s="5" t="n">
         <v>45299</v>
@@ -4971,11 +4969,11 @@
         <v>45299</v>
       </c>
       <c r="U62" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V62"/>
       <c r="W62" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X62" s="5" t="n">
         <v>45299</v>
@@ -5030,11 +5028,11 @@
         <v>45299</v>
       </c>
       <c r="U63" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V63"/>
       <c r="W63" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X63" s="5" t="n">
         <v>45299</v>
@@ -5093,7 +5091,7 @@
       </c>
       <c r="V64"/>
       <c r="W64" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X64" s="5" t="n">
         <v>45299</v>
@@ -5152,7 +5150,7 @@
       </c>
       <c r="V65"/>
       <c r="W65" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X65" s="5" t="n">
         <v>45299</v>
@@ -5211,7 +5209,7 @@
       </c>
       <c r="V66"/>
       <c r="W66" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X66" s="5" t="n">
         <v>45299</v>
@@ -5266,7 +5264,7 @@
       </c>
       <c r="V67"/>
       <c r="W67" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X67" s="5" t="n">
         <v>45299</v>
@@ -5325,7 +5323,7 @@
       </c>
       <c r="V68"/>
       <c r="W68" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X68" s="5" t="n">
         <v>45299</v>
@@ -5384,7 +5382,7 @@
       </c>
       <c r="V69"/>
       <c r="W69" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X69" s="5" t="n">
         <v>45299</v>
@@ -5443,7 +5441,7 @@
       </c>
       <c r="V70"/>
       <c r="W70" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X70" s="5" t="n">
         <v>45299</v>
@@ -5504,7 +5502,7 @@
         <v>284</v>
       </c>
       <c r="W71" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X71" s="5" t="n">
         <v>45299</v>
@@ -5563,7 +5561,7 @@
       </c>
       <c r="V72"/>
       <c r="W72" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X72" s="5" t="n">
         <v>45299</v>
@@ -5622,7 +5620,7 @@
       </c>
       <c r="V73"/>
       <c r="W73" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X73" s="5" t="n">
         <v>45299</v>
@@ -5681,7 +5679,7 @@
       </c>
       <c r="V74"/>
       <c r="W74" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X74" s="5" t="n">
         <v>45299</v>
@@ -5740,7 +5738,7 @@
       </c>
       <c r="V75"/>
       <c r="W75" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X75" s="5" t="n">
         <v>45299</v>
@@ -5789,7 +5787,7 @@
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X76" s="5" t="n">
         <v>45299</v>
@@ -5848,7 +5846,7 @@
       </c>
       <c r="V77"/>
       <c r="W77" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X77" s="5" t="n">
         <v>45299</v>
@@ -5911,11 +5909,11 @@
         <v>45299</v>
       </c>
       <c r="U78" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V78"/>
       <c r="W78" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X78" s="5" t="n">
         <v>45299</v>
@@ -5974,7 +5972,7 @@
       </c>
       <c r="V79"/>
       <c r="W79" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X79" s="5" t="n">
         <v>45299</v>
@@ -6037,7 +6035,7 @@
       </c>
       <c r="V80"/>
       <c r="W80" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X80" s="5" t="n">
         <v>45299</v>
@@ -6096,7 +6094,7 @@
       </c>
       <c r="V81"/>
       <c r="W81" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X81" s="5" t="n">
         <v>45299</v>
@@ -6159,7 +6157,7 @@
       </c>
       <c r="V82"/>
       <c r="W82" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X82" s="5" t="n">
         <v>45299</v>
@@ -6222,7 +6220,7 @@
       </c>
       <c r="V83"/>
       <c r="W83" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X83" s="5" t="n">
         <v>45299</v>
@@ -6285,7 +6283,7 @@
       </c>
       <c r="V84"/>
       <c r="W84" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X84" s="5" t="n">
         <v>45299</v>
@@ -6348,7 +6346,7 @@
       </c>
       <c r="V85"/>
       <c r="W85" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X85" s="5" t="n">
         <v>45299</v>
@@ -6411,7 +6409,7 @@
       </c>
       <c r="V86"/>
       <c r="W86" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X86" s="5" t="n">
         <v>45299</v>
@@ -6476,7 +6474,7 @@
       </c>
       <c r="V87"/>
       <c r="W87" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X87" s="5" t="n">
         <v>45299</v>
@@ -6541,7 +6539,7 @@
       </c>
       <c r="V88"/>
       <c r="W88" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X88" s="5" t="n">
         <v>45299</v>
@@ -6604,7 +6602,7 @@
       </c>
       <c r="V89"/>
       <c r="W89" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X89" s="5" t="n">
         <v>45299</v>
@@ -6667,7 +6665,7 @@
       </c>
       <c r="V90"/>
       <c r="W90" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X90" s="5" t="n">
         <v>45299</v>
@@ -6730,7 +6728,7 @@
       </c>
       <c r="V91"/>
       <c r="W91" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X91" s="5" t="n">
         <v>45299</v>
@@ -6793,7 +6791,7 @@
       </c>
       <c r="V92"/>
       <c r="W92" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X92" s="5" t="n">
         <v>45299</v>
